--- a/Диаграммы.xlsx
+++ b/Диаграммы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Диаграмма1" sheetId="2" r:id="rId1"/>
@@ -232,6 +232,125 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$I$2:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.2699999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.25</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.22</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$I$2:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.2699999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.25</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.22</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$2:$A$5</c:f>
@@ -298,6 +417,125 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$K$2:$K$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.26</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.28</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.29</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$K$2:$K$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.26</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.28</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.29</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$2:$A$5</c:f>
@@ -364,6 +602,125 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$M$2:$M$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.36</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.27</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.33</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$M$2:$M$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.36</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.27</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.33</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$2:$A$5</c:f>
@@ -407,8 +764,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -416,11 +774,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="303074352"/>
-        <c:axId val="303074912"/>
+        <c:axId val="191905552"/>
+        <c:axId val="191906112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="303074352"/>
+        <c:axId val="191905552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +821,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303074912"/>
+        <c:crossAx val="191906112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -471,7 +829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303074912"/>
+        <c:axId val="191906112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +940,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303074352"/>
+        <c:crossAx val="191905552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -703,6 +1061,125 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$F$9:$F$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.34</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.67</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$F$9:$F$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.34</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.67</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$9:$A$12</c:f>
@@ -730,24 +1207,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>671</c:v>
+                  <c:v>670.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -755,11 +1233,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248034176"/>
-        <c:axId val="243414544"/>
+        <c:axId val="191908912"/>
+        <c:axId val="191909472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248034176"/>
+        <c:axId val="191908912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +1280,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243414544"/>
+        <c:crossAx val="191909472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +1288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243414544"/>
+        <c:axId val="191909472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +1395,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248034176"/>
+        <c:crossAx val="191908912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,6 +1516,125 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.87</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.75</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.68</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.87</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.75</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.68</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$16:$A$19</c:f>
@@ -1104,6 +1701,125 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$G$16:$G$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.09</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.59</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.85</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$G$16:$G$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.09</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.59</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.85</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$16:$A$19</c:f>
@@ -1147,8 +1863,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1156,11 +1873,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="310770720"/>
-        <c:axId val="306160848"/>
+        <c:axId val="191912272"/>
+        <c:axId val="191912832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310770720"/>
+        <c:axId val="191912272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1920,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306160848"/>
+        <c:crossAx val="191912832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306160848"/>
+        <c:axId val="191912832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +2044,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310770720"/>
+        <c:crossAx val="191912272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1507,6 +2224,66 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$E$23:$E$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.66</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.37</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.39</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.49</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$E$23:$E$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.66</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.37</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.39</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.49</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$23:$A$26</c:f>
@@ -1560,11 +2337,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="249582384"/>
-        <c:axId val="249582944"/>
+        <c:axId val="192276672"/>
+        <c:axId val="192277232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="249582384"/>
+        <c:axId val="192276672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +2384,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249582944"/>
+        <c:crossAx val="192277232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +2392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249582944"/>
+        <c:axId val="192277232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +2504,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249582384"/>
+        <c:crossAx val="192276672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3980,7 +4757,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4358,10 +5135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,7 +5146,7 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -4380,7 +5157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4395,8 +5172,17 @@
         <v>17.840000000000003</v>
       </c>
       <c r="E2" s="2"/>
+      <c r="I2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K2">
+        <v>4.26</v>
+      </c>
+      <c r="M2">
+        <v>3.32</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4411,8 +5197,17 @@
         <v>18.420000000000002</v>
       </c>
       <c r="E3" s="4"/>
+      <c r="I3">
+        <v>4.3</v>
+      </c>
+      <c r="K3">
+        <v>4.2</v>
+      </c>
+      <c r="M3">
+        <v>3.36</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4427,8 +5222,17 @@
         <v>17.170000000000002</v>
       </c>
       <c r="E4" s="4"/>
+      <c r="I4">
+        <v>4.25</v>
+      </c>
+      <c r="K4">
+        <v>4.28</v>
+      </c>
+      <c r="M4">
+        <v>3.27</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4443,45 +5247,66 @@
         <v>18.090000000000003</v>
       </c>
       <c r="E5" s="4"/>
+      <c r="I5">
+        <v>4.22</v>
+      </c>
+      <c r="K5">
+        <v>4.29</v>
+      </c>
+      <c r="M5">
+        <v>3.33</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>6.47</v>
+      </c>
+      <c r="F9">
+        <v>0.34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>16</v>
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>671</v>
+        <v>670.57</v>
+      </c>
+      <c r="F11">
+        <v>3.11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3">
-        <v>14</v>
+        <v>14.34</v>
+      </c>
+      <c r="F12">
+        <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -4489,7 +5314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4499,8 +5324,14 @@
       <c r="C16" s="2">
         <v>87.9</v>
       </c>
+      <c r="F16">
+        <v>2.87</v>
+      </c>
+      <c r="G16">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4510,8 +5341,14 @@
       <c r="C17" s="4">
         <v>94.4</v>
       </c>
+      <c r="F17">
+        <v>2.75</v>
+      </c>
+      <c r="G17">
+        <v>3.09</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4521,8 +5358,14 @@
       <c r="C18" s="4">
         <v>94.8</v>
       </c>
+      <c r="F18">
+        <v>2.7</v>
+      </c>
+      <c r="G18">
+        <v>2.59</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -4532,42 +5375,60 @@
       <c r="C19" s="4">
         <v>96.6</v>
       </c>
+      <c r="F19">
+        <v>2.68</v>
+      </c>
+      <c r="G19">
+        <v>2.85</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1">
         <v>10.5</v>
       </c>
+      <c r="E23">
+        <v>2.66</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="3">
         <v>24.7</v>
       </c>
+      <c r="E24">
+        <v>3.37</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="3">
         <v>18.899999999999999</v>
       </c>
+      <c r="E25">
+        <v>3.39</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="3">
         <v>20.3</v>
+      </c>
+      <c r="E26">
+        <v>3.49</v>
       </c>
     </row>
   </sheetData>
